--- a/Souq/src/price/Souq/excel_10_vestidos_e_kaftans.xlsx
+++ b/Souq/src/price/Souq/excel_10_vestidos_e_kaftans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VESTIDO AMELIA</t>
+          <t>VESTIDO YOKO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-amelia-04-26-11-534-054.html</t>
+          <t>https://www.souqstore.com.br/vestido-yoko-04-26-11-337-042.html</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>999,00</t>
+          <t>869,00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>499,00</t>
+          <t>238,00</t>
         </is>
       </c>
     </row>
@@ -1978,22 +1978,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VESTIDO YOKO</t>
+          <t>TUNICA VERONIKA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-yoko-04-26-11-337-042.html</t>
+          <t>https://www.souqstore.com.br/tunica-veronika-04-26-03-101-035.html</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>869,00</t>
+          <t>699,00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>238,00</t>
+          <t>197,00</t>
         </is>
       </c>
     </row>
@@ -2015,22 +2015,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>TUNICA VERONIKA</t>
+          <t>VESTIDO DEIA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/tunica-veronika-04-26-03-101-035.html</t>
+          <t>https://www.souqstore.com.br/vestido-deia-04-26-11-535-054.html</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>699,00</t>
+          <t>999,00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>197,00</t>
+          <t>499,00</t>
         </is>
       </c>
     </row>
@@ -2052,24 +2052,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VESTIDO DEIA</t>
+          <t>VESTIDO ANA LIZ</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-deia-04-26-11-535-054.html</t>
+          <t>https://www.souqstore.com.br/vestido-ana-liz-04-26-11-475-054.html</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>999,00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>499,00</t>
-        </is>
-      </c>
+          <t>488,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2089,20 +2085,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VESTIDO ANA LIZ</t>
+          <t>VESTIDO TRICOT TOMÁSIA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-ana-liz-04-26-11-475-054.html</t>
+          <t>https://www.souqstore.com.br/vestido-tricot-tomasia-04-24-03-012-053.html</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>488,00</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>899,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2122,22 +2122,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VESTIDO TRICOT TOMÁSIA</t>
+          <t>VESTIDO GINA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-tricot-tomasia-04-24-03-012-053.html</t>
+          <t>https://www.souqstore.com.br/vestido-gina-04-26-11-417-030.html</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>899,00</t>
+          <t>679,00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>438,00</t>
+          <t>197,00</t>
         </is>
       </c>
     </row>
@@ -2159,24 +2159,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VESTIDO GINA</t>
+          <t>VESTIDO ELVIRA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-gina-04-26-11-417-030.html</t>
+          <t>https://www.souqstore.com.br/vestido-elvira-04-26-11-556-054.html</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>679,00</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>197,00</t>
-        </is>
-      </c>
+          <t>588,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2196,17 +2192,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VESTIDO ELVIRA</t>
+          <t>VESTIDO MARIAH</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-elvira-04-26-11-556-054.html</t>
+          <t>https://www.souqstore.com.br/vestido-mariah-04-26-11-538-043.html</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>588,00</t>
+          <t>509,00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2229,90 +2225,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VESTIDO MARIAH</t>
+          <t>VESTIDO JO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.souqstore.com.br/vestido-mariah-04-26-11-538-043.html</t>
+          <t>https://www.souqstore.com.br/vestido-jo-04-23-08-379-054.html</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>509,00</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Vestidos e Kaftans</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/vestidos-e-kaftans.html</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/vestidos-e-kaftans.html?p=1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>VESTIDO JO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/vestido-jo-04-23-08-379-054.html</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>699,00</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>349,00</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Vestidos e Kaftans</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/vestidos-e-kaftans.html</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/roupas/vestidos-e-kaftans.html?p=1</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>VESTIDO ZINA</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/vestido-zina-04-26-11-576-035.html</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>688,00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
